--- a/jd/jd.xlsx
+++ b/jd/jd.xlsx
@@ -17,157 +17,157 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
   <si>
-    <t>[u'\u60e0\u666e\uff08HP\uff0924ES 23.8\u82f1\u5bf8 \u7ea4\u8584\u7a84\u8fb9\u6846 IPS\u5c4f \u5e7f\u89c6\u89d2\u91d1\u5c5e\u5e95\u5ea7\u6db2\u6676', u'\uff08\u94f6\u8272\uff09']</t>
+    <t>[u'惠普（HP）24ES 23.8英寸 纤薄窄边框 IPS屏 广视角金属底座液晶', u'（银色）']</t>
   </si>
   <si>
     <t>[u'888.00']</t>
   </si>
   <si>
-    <t>[u'AOC 23.6\u82f1\u5bf8 \u7115\u65b0\u4e8c\u4ee3PLS\u5c4f 1.6mm\u7a84\u8fb9\u6846P2491VWHE/BW \u5e7f\u89c6\u89d2 \u7231\u773c\u4e0d\u95ea\u5c4f\u7535\u8111', u'\uff08HDMI\u7248\uff09']</t>
+    <t>[u'AOC 23.6英寸 焕新二代PLS屏 1.6mm窄边框P2491VWHE/BW 广视角 爱眼不闪屏电脑', u'（HDMI版）']</t>
   </si>
   <si>
     <t>[u'849.00']</t>
   </si>
   <si>
-    <t>[u'\u4e09\u661f\uff08SAMSUNG\uff09C27F390FHC 27\u82f1\u5bf81800R\u9707\u64bc\u66f2\u7387\u7231\u773c\u4f4e\u84dd\u5149\u66f2\u9762']</t>
+    <t>[u'三星（SAMSUNG）C27F390FHC 27英寸1800R震撼曲率爱眼低蓝光曲面']</t>
   </si>
   <si>
     <t>[u'1449.00']</t>
   </si>
   <si>
-    <t>[u'\u4e09\u661f\uff08SAMSUNG\uff09C24F390FHC 23.5\u82f1\u5bf81800R\u9707\u64bc\u66f2\u7387\u7231\u773c\u4f4e\u84dd\u5149\u66f2\u9762']</t>
+    <t>[u'三星（SAMSUNG）C24F390FHC 23.5英寸1800R震撼曲率爱眼低蓝光曲面']</t>
   </si>
   <si>
     <t>[u'999.00']</t>
   </si>
   <si>
-    <t>[u'\u6234\u5c14\uff08DELL\uff09 U2417H 23.8\u82f1\u5bf8\u56db\u8fb9\u5fae\u8fb9\u6846\u65cb\u8f6c\u5347\u964dIPS\u5c4f \u51fa\u5382\u8272\u5f69\u6821\u51c6 99%sRGB \u7535\u8111']</t>
+    <t>[u'戴尔（DELL） U2417H 23.8英寸四边微边框旋转升降IPS屏 出厂色彩校准 99%sRGB 电脑']</t>
   </si>
   <si>
     <t>[u'1499.00']</t>
   </si>
   <si>
-    <t>[u'\u4e09\u661f\uff08SAMSUNG\uff09S24D360HL 23.6\u82f1\u5bf8PLS\u81fb\u5f69\u5e7f\u89c6\u89d2\u7535\u8111', u'\uff08HDMI\u63a5\u53e3\uff09']</t>
+    <t>[u'三星（SAMSUNG）S24D360HL 23.6英寸PLS臻彩广视角电脑', u'（HDMI接口）']</t>
   </si>
   <si>
     <t>[u'838.00']</t>
   </si>
   <si>
-    <t>[u'\u4e09\u661f\uff08SAMSUNG\uff09C27F591FDC 27\u82f1\u5bf81800R\u9707\u64bc\u66f2\u7387\u5fae\u8fb9\u6846\u66f2\u9762', u'\u5fae\u661f MSI GTX 1070 8G DUKE \u95c7\u9ed1\u9f99\u7235\u663e\u5361+\u4e09\u661f 27\u82f1\u5bf8\u7ec6\u7a84\u8fb9\u6846LED\u80cc\u5149\u66f2\u9762', u'  \u4f18\u60e0\u5957\u5305', u'\u5fae\u661f MSI GTX 1070 GAMING X \u663e\u5361+\u4e09\u661f 27\u82f1\u5bf8\u7ec6\u7a84\u8fb9\u6846LED\u80cc\u5149\u66f2\u9762', u'  \u4f18\u60e0\u5957\u5305']</t>
+    <t>[u'三星（SAMSUNG）C27F591FDC 27英寸1800R震撼曲率微边框曲面', u'微星 MSI GTX 1070 8G DUKE 闇黑龙爵显卡+三星 27英寸细窄边框LED背光曲面', u'  优惠套包', u'微星 MSI GTX 1070 GAMING X 显卡+三星 27英寸细窄边框LED背光曲面', u'  优惠套包']</t>
   </si>
   <si>
     <t>[u'1599.00']</t>
   </si>
   <si>
-    <t>[u'\u6234\u5c14\uff08DELL\uff09 SE2416H 23.8\u82f1\u5bf8\u7a84\u8fb9\u6846\u5e26HDMI\u9ad8\u6e05\u63a5\u53e3IPS\u5c4f']</t>
+    <t>[u'戴尔（DELL） SE2416H 23.8英寸窄边框带HDMI高清接口IPS屏']</t>
   </si>
   <si>
     <t>[u'899.00']</t>
   </si>
   <si>
-    <t>[u'AOC 27\u82f1\u5bf8 \u7115\u65b0\u4e8c\u4ee3PLS\u5c4f 1.6mm\u7a84\u8fb9\u6846P2791VHE/BW\u5e7f\u89c6\u89d2 \u7231\u773c\u4e0d\u95ea\u5c4f\u7535\u8111', u'\uff08HDMI\u7248\uff09']</t>
+    <t>[u'AOC 27英寸 焕新二代PLS屏 1.6mm窄边框P2791VHE/BW广视角 爱眼不闪屏电脑', u'（HDMI版）']</t>
   </si>
   <si>
     <t>[u'1149.00']</t>
   </si>
   <si>
-    <t>[u'AOC C2791VHE/WS 27\u82f1\u5bf8 1800R\u66f2\u7387 VA\u5e7f\u89c6\u89d2 \u5bb6\u7528\u7535\u7ade\u53cc\u5b9e\u529b \u4e0d\u95ea\u5c4f\u66f2\u9762\u7535\u8111']</t>
+    <t>[u'AOC C2791VHE/WS 27英寸 1800R曲率 VA广视角 家用电竞双实力 不闪屏曲面电脑']</t>
   </si>
   <si>
     <t>[u'1199.00']</t>
   </si>
   <si>
-    <t>[u'\u4e09\u661f\uff08SAMSUNG\uff09 C27H711QEC 27\u82f1\u5bf81800R\u9707\u64bc\u66f2\u7387\u5fae\u8fb9\u68462K\u9ad8\u5206\u66f2\u9762']</t>
+    <t>[u'三星（SAMSUNG） C27H711QEC 27英寸1800R震撼曲率微边框2K高分曲面']</t>
   </si>
   <si>
     <t>[u'2799.00']</t>
   </si>
   <si>
-    <t>[u'\u98de\u5229\u6d66\uff08PHILIPS\uff0927\u82f1\u5bf8 144Hz\u5237\u65b0\u7387/1ms\u76f8\u5e94 \u6e38\u620f\u7535\u7ade \u5347\u964d\u65cb\u8f6c \u5403\u9e21', u'272G5DJEB']</t>
+    <t>[u'飞利浦（PHILIPS）27英寸 144Hz刷新率/1ms相应 游戏电竞 升降旋转 吃鸡', u'272G5DJEB']</t>
   </si>
   <si>
     <t>[u'1699.00']</t>
   </si>
   <si>
-    <t>[u'\u98de\u5229\u6d66\uff08PHILIPS\uff0923.6\u82f1\u5bf8 \u4e8c\u4ee3\u70ab\u5f69PLS\u5c4f \u7a84\u8fb9\u6846\uff08HDMI\u7248\uff09 \u7231\u773c\u4e0d\u95ea \u7535\u8111\u6db2\u6676', u'247E7QHSWP']</t>
+    <t>[u'飞利浦（PHILIPS）23.6英寸 二代炫彩PLS屏 窄边框（HDMI版） 爱眼不闪 电脑液晶', u'247E7QHSWP']</t>
   </si>
   <si>
     <t>[u'799.00']</t>
   </si>
   <si>
-    <t>[u'\u534e\u7855\uff08ASUS\uff09ROG\u73a9\u5bb6\u56fd\u5ea6 PG279Q 27\u82f1\u5bf8IPS\u5c4f2K\u9ad8\u5206165Hz\u5237\u65b0\u5403\u9e21\u7535\u7ade', u'\uff08HDMI/DP\u63a5\u53e3+\u5185\u7f6e\u97f3\u7bb1\uff09']</t>
+    <t>[u'华硕（ASUS）ROG玩家国度 PG279Q 27英寸IPS屏2K高分165Hz刷新吃鸡电竞', u'（HDMI/DP接口+内置音箱）']</t>
   </si>
   <si>
     <t>[u'5999.00']</t>
   </si>
   <si>
-    <t>[u'\u6234\u5c14\uff08DELL\uff09 U2414H 23.8\u82f1\u5bf8\u7a84\u8fb9\u6846\u65cb\u8f6c\u5347\u964dIPS\u5c4f \u51fa\u5382\u8272\u5f69\u6821\u51c6 99%sRGB \u7535\u8111']</t>
+    <t>[u'戴尔（DELL） U2414H 23.8英寸窄边框旋转升降IPS屏 出厂色彩校准 99%sRGB 电脑']</t>
   </si>
   <si>
     <t>[u'1399.00']</t>
   </si>
   <si>
-    <t>[u'\u98de\u5229\u6d66\uff08PHILIPS\uff0927\u82f1\u5bf8 \u4e8c\u4ee3\u66f2\u97621800R \u5168\u91d1\u5c5e\u5e95\u5ea7 \u70ab\u5f69MVA\u5c4f \u7ea4\u8584\u673a\u8eab \u7535\u8111\u6db2\u6676', u' 278E8QDSW']</t>
-  </si>
-  <si>
-    <t>[u'\u4e09\u661f\uff08SAMSUNG\uff09C24F396FHC 23.5\u82f1\u5bf81800R\u9707\u64bc\u66f2\u7387\u7231\u773c\u4f4e\u84dd\u5149\u66f2\u9762']</t>
+    <t>[u'飞利浦（PHILIPS）27英寸 二代曲面1800R 全金属底座 炫彩MVA屏 纤薄机身 电脑液晶', u' 278E8QDSW']</t>
+  </si>
+  <si>
+    <t>[u'三星（SAMSUNG）C24F396FHC 23.5英寸1800R震撼曲率爱眼低蓝光曲面']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>[u'AOC I2579VHE6 25\u82f1\u5bf8AH-IPS\u5e7f\u89c6\u89d2\u7a84\u8fb9\u6846 \u7231\u773c\u51c0\u84dd\u5149\u4e0d\u95ea\u5c4f\u7535\u8111', u'(HDMI)']</t>
+    <t>[u'AOC I2579VHE6 25英寸AH-IPS广视角窄边框 爱眼净蓝光不闪屏电脑', u'(HDMI)']</t>
   </si>
   <si>
     <t>[u'1049.00']</t>
   </si>
   <si>
-    <t>[u'AOC I2476VXM 23.8\u82f1\u5bf8IPS-ADS\u5e7f\u89c6\u89d2\u70ab\u5f69\u786c\u5c4f\u7231\u773c\u4e0d\u95ea\u7535\u8111', u'(HDMI)']</t>
-  </si>
-  <si>
-    <t>[u'\u98de\u5229\u6d66\uff08PHILIPS\uff0927\u82f1\u5bf8 AH-IPS\u786c\u4ef6\u6297\u84dd\u5149\u4e0d\u504f\u8272 \u7ec6\u7a84\u8fb9\u6846 \u4e0d\u95ea\u5c4f \u7535\u8111\u6db2\u6676', u'277E7EDSW']</t>
+    <t>[u'AOC I2476VXM 23.8英寸IPS-ADS广视角炫彩硬屏爱眼不闪电脑', u'(HDMI)']</t>
+  </si>
+  <si>
+    <t>[u'飞利浦（PHILIPS）27英寸 AH-IPS硬件抗蓝光不偏色 细窄边框 不闪屏 电脑液晶', u'277E7EDSW']</t>
   </si>
   <si>
     <t>[u'1099.00']</t>
   </si>
   <si>
-    <t>[u'\u6234\u5c14\uff08DELL\uff09U2518DR 25\u82f1\u5bf82K\u5206\u8fa8\u7387\u56db\u8fb9\u5fae\u8fb9\u6846\u65cb\u8f6c\u5347\u964dIPS\u5c4f HDR \u7231\u773c\u6ee4\u84dd\u5149 \u7535\u8111', u'\uff08\u5e26HDMI\u7ebf\uff09']</t>
+    <t>[u'戴尔（DELL）U2518DR 25英寸2K分辨率四边微边框旋转升降IPS屏 HDR 爱眼滤蓝光 电脑', u'（带HDMI线）']</t>
   </si>
   <si>
     <t>[u'2399.00']</t>
   </si>
   <si>
-    <t>[u'AOC M2060SWD 19.53\u82f1\u5bf8MVA\u5e7f\u89c6\u89d2\u5168\u9ad8\u6e05LED\u80cc\u5149\u6db2\u6676\u7535\u8111', u'\uff08\u9ed1\u8272\uff09']</t>
+    <t>[u'AOC M2060SWD 19.53英寸MVA广视角全高清LED背光液晶电脑', u'（黑色）']</t>
   </si>
   <si>
     <t>[u'549.00']</t>
   </si>
   <si>
-    <t>[u'\u6234\u5c14\uff08DELL\uff09 U2515H 25\u82f1\u5bf82K\u8d85\u9ad8\u6e05\u65cb\u8f6c\u5347\u964d\u4e13\u4e1a\u7ea7IPS\u5c4f']</t>
+    <t>[u'戴尔（DELL） U2515H 25英寸2K超高清旋转升降专业级IPS屏']</t>
   </si>
   <si>
     <t>[u'2599.00']</t>
   </si>
   <si>
-    <t>[u'\u4e09\u661f\uff08SAMSUNG\uff09C27F396FHC 27\u82f1\u5bf81800R\u9707\u64bc\u66f2\u7387\u7231\u773c\u4f4e\u84dd\u5149\u66f2\u9762']</t>
-  </si>
-  <si>
-    <t>[u'AOC \u5362\u74e6\u5c14\u7cfb\u5217 LV243XIP 23.8\u82f1\u5bf8\u7a84\u8fb9\u6846IPS\u5e7f\u89c6\u89d2\u4e0d\u95ea\u5c4f\u7535\u8111', u'(\u53ccHDMI+DP)', u'AOC LV243XIP 23.8\u82f1\u5bf8', u'+\u4e50\u6b4c\u652f\u67b6\u53cc\u5c4f\u7ec4\u5408\u5957\u88c5', u'AOC \u5362\u74e6\u5c14\u7cfb\u5217 LV243XIP 23.8\u82f1\u5bf8', u'+\u4e50\u6b4c\u56db\u5c4f\u652f\u67b6']</t>
-  </si>
-  <si>
-    <t>[u'\u98de\u5229\u6d66\uff08PHILIPS\uff0927\u82f1\u5bf8 2K\u9ad8\u5206 IPS\u5e7f\u8272\u57df \u7ec6\u7a84\u8fb9\u6846 \u5185\u7f6e\u97f3\u7bb1 \u7535\u8111\u6db2\u6676', u' 276E8FJAB']</t>
+    <t>[u'三星（SAMSUNG）C27F396FHC 27英寸1800R震撼曲率爱眼低蓝光曲面']</t>
+  </si>
+  <si>
+    <t>[u'AOC 卢瓦尔系列 LV243XIP 23.8英寸窄边框IPS广视角不闪屏电脑', u'(双HDMI+DP)', u'AOC LV243XIP 23.8英寸', u'+乐歌支架双屏组合套装', u'AOC 卢瓦尔系列 LV243XIP 23.8英寸', u'+乐歌四屏支架']</t>
+  </si>
+  <si>
+    <t>[u'飞利浦（PHILIPS）27英寸 2K高分 IPS广色域 细窄边框 内置音箱 电脑液晶', u' 276E8FJAB']</t>
   </si>
   <si>
     <t>[u'1899.00']</t>
   </si>
   <si>
-    <t>[u'\u98de\u5229\u6d66\uff08PHILIPS\uff0927\u82f1\u5bf8 \u4e8c\u4ee31800R\u66f2\u7387 \u65d7\u8230\u7ea7\u66f2\u9762 HDMI/DP\u63a5\u53e3 90%NTSC\u5e7f\u8272\u57df 7.7mm\u7ea4\u8584 \u7535\u8111\u6db2\u6676', u'278C7QJSW']</t>
+    <t>[u'飞利浦（PHILIPS）27英寸 二代1800R曲率 旗舰级曲面 HDMI/DP接口 90%NTSC广色域 7.7mm纤薄 电脑液晶', u'278C7QJSW']</t>
   </si>
   <si>
     <t>[u'1299.00']</t>
   </si>
   <si>
-    <t>[u'\u4e09\u661f\uff08SAMSUNG\uff09C32F395FWC 31.5\u82f1\u5bf81800R\u9707\u64bc\u66f2\u7387\u53ef\u58c1\u6302\u66f2\u9762']</t>
+    <t>[u'三星（SAMSUNG）C32F395FWC 31.5英寸1800R震撼曲率可壁挂曲面']</t>
   </si>
 </sst>
 </file>

--- a/jd/jd.xlsx
+++ b/jd/jd.xlsx
@@ -50,21 +50,18 @@
     <t>[u'三星（SAMSUNG）S24D360HL 23.6英寸PLS臻彩广视角电脑', u'（HDMI接口）']</t>
   </si>
   <si>
-    <t>[u'838.00']</t>
+    <t>[u'899.00']</t>
   </si>
   <si>
     <t>[u'三星（SAMSUNG）C27F591FDC 27英寸1800R震撼曲率微边框曲面', u'微星 MSI GTX 1070 8G DUKE 闇黑龙爵显卡+三星 27英寸细窄边框LED背光曲面', u'  优惠套包', u'微星 MSI GTX 1070 GAMING X 显卡+三星 27英寸细窄边框LED背光曲面', u'  优惠套包']</t>
   </si>
   <si>
-    <t>[u'1599.00']</t>
+    <t>[u'1649.00']</t>
   </si>
   <si>
     <t>[u'戴尔（DELL） SE2416H 23.8英寸窄边框带HDMI高清接口IPS屏']</t>
   </si>
   <si>
-    <t>[u'899.00']</t>
-  </si>
-  <si>
     <t>[u'AOC 27英寸 焕新二代PLS屏 1.6mm窄边框P2791VHE/BW广视角 爱眼不闪屏电脑', u'（HDMI版）']</t>
   </si>
   <si>
@@ -74,7 +71,16 @@
     <t>[u'AOC C2791VHE/WS 27英寸 1800R曲率 VA广视角 家用电竞双实力 不闪屏曲面电脑']</t>
   </si>
   <si>
-    <t>[u'1199.00']</t>
+    <t>[u'AOC E2252SWDN 21.5英寸LED背光宽屏液晶电脑']</t>
+  </si>
+  <si>
+    <t>[u'599.00']</t>
+  </si>
+  <si>
+    <t>[u'惠科（HKC）CH70 27英寸VA纤薄微边1800R曲面LED背光液晶', u'（HDMI/VGA接口）']</t>
+  </si>
+  <si>
+    <t>[u'1099.00']</t>
   </si>
   <si>
     <t>[u'三星（SAMSUNG） C27H711QEC 27英寸1800R震撼曲率微边框2K高分曲面']</t>
@@ -83,73 +89,76 @@
     <t>[u'2799.00']</t>
   </si>
   <si>
-    <t>[u'飞利浦（PHILIPS）27英寸 144Hz刷新率/1ms相应 游戏电竞 升降旋转 吃鸡', u'272G5DJEB']</t>
-  </si>
-  <si>
-    <t>[u'1699.00']</t>
-  </si>
-  <si>
     <t>[u'飞利浦（PHILIPS）23.6英寸 二代炫彩PLS屏 窄边框（HDMI版） 爱眼不闪 电脑液晶', u'247E7QHSWP']</t>
   </si>
   <si>
+    <t>[u'华硕（ASUS）ROG玩家国度 PG279Q 27英寸IPS屏2K高分165Hz刷新吃鸡电竞', u'（HDMI/DP接口+内置音箱）']</t>
+  </si>
+  <si>
+    <t>[u'5999.00']</t>
+  </si>
+  <si>
+    <t>[u'戴尔（DELL） U2414H 23.8英寸窄边框旋转升降IPS屏 出厂色彩校准 99%sRGB 电脑']</t>
+  </si>
+  <si>
+    <t>[u'1399.00']</t>
+  </si>
+  <si>
+    <t>[u'飞利浦（PHILIPS）27英寸 二代曲面1800R 全金属底座 炫彩MVA屏 纤薄机身 电脑液晶', u' 278E8QDSW']</t>
+  </si>
+  <si>
+    <t>[u'1299.00']</t>
+  </si>
+  <si>
+    <t>[u'三星（SAMSUNG）C24F396FHC 23.5英寸1800R震撼曲率爱眼低蓝光曲面']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[u'戴尔（DELL）U2518DR 25英寸2K分辨率四边微边框旋转升降IPS屏 HDR 爱眼滤蓝光 电脑', u'（带HDMI线）']</t>
+  </si>
+  <si>
+    <t>[u'2399.00']</t>
+  </si>
+  <si>
+    <t>[u'铭速（MINGSU） Q240 24英寸23.8英寸23英寸', u'液晶屏窄边框广视角 白色']</t>
+  </si>
+  <si>
+    <t>[u'559.00']</t>
+  </si>
+  <si>
+    <t>[u'AOC I2579VHE6 25英寸AH-IPS广视角窄边框 爱眼净蓝光不闪屏电脑', u'(HDMI)']</t>
+  </si>
+  <si>
+    <t>[u'1049.00']</t>
+  </si>
+  <si>
+    <t>[u'AOC I2476VXM 23.8英寸IPS-ADS广视角炫彩硬屏爱眼不闪电脑', u'(HDMI)']</t>
+  </si>
+  <si>
     <t>[u'799.00']</t>
   </si>
   <si>
-    <t>[u'华硕（ASUS）ROG玩家国度 PG279Q 27英寸IPS屏2K高分165Hz刷新吃鸡电竞', u'（HDMI/DP接口+内置音箱）']</t>
-  </si>
-  <si>
-    <t>[u'5999.00']</t>
-  </si>
-  <si>
-    <t>[u'戴尔（DELL） U2414H 23.8英寸窄边框旋转升降IPS屏 出厂色彩校准 99%sRGB 电脑']</t>
-  </si>
-  <si>
-    <t>[u'1399.00']</t>
-  </si>
-  <si>
-    <t>[u'飞利浦（PHILIPS）27英寸 二代曲面1800R 全金属底座 炫彩MVA屏 纤薄机身 电脑液晶', u' 278E8QDSW']</t>
-  </si>
-  <si>
-    <t>[u'三星（SAMSUNG）C24F396FHC 23.5英寸1800R震撼曲率爱眼低蓝光曲面']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>[u'AOC I2579VHE6 25英寸AH-IPS广视角窄边框 爱眼净蓝光不闪屏电脑', u'(HDMI)']</t>
-  </si>
-  <si>
-    <t>[u'1049.00']</t>
-  </si>
-  <si>
-    <t>[u'AOC I2476VXM 23.8英寸IPS-ADS广视角炫彩硬屏爱眼不闪电脑', u'(HDMI)']</t>
+    <t>[u'AOC M2060SWD 19.53英寸MVA广视角全高清LED背光液晶电脑', u'（黑色）']</t>
+  </si>
+  <si>
+    <t>[u'549.00']</t>
+  </si>
+  <si>
+    <t>[u'戴尔（DELL） U2515H 25英寸2K超高清旋转升降专业级IPS屏']</t>
+  </si>
+  <si>
+    <t>[u'2599.00']</t>
+  </si>
+  <si>
+    <t>[u'三星（SAMSUNG）C27F396FHC 27英寸1800R震撼曲率爱眼低蓝光曲面']</t>
   </si>
   <si>
     <t>[u'飞利浦（PHILIPS）27英寸 AH-IPS硬件抗蓝光不偏色 细窄边框 不闪屏 电脑液晶', u'277E7EDSW']</t>
   </si>
   <si>
-    <t>[u'1099.00']</t>
-  </si>
-  <si>
-    <t>[u'戴尔（DELL）U2518DR 25英寸2K分辨率四边微边框旋转升降IPS屏 HDR 爱眼滤蓝光 电脑', u'（带HDMI线）']</t>
-  </si>
-  <si>
-    <t>[u'2399.00']</t>
-  </si>
-  <si>
-    <t>[u'AOC M2060SWD 19.53英寸MVA广视角全高清LED背光液晶电脑', u'（黑色）']</t>
-  </si>
-  <si>
-    <t>[u'549.00']</t>
-  </si>
-  <si>
-    <t>[u'戴尔（DELL） U2515H 25英寸2K超高清旋转升降专业级IPS屏']</t>
-  </si>
-  <si>
-    <t>[u'2599.00']</t>
-  </si>
-  <si>
-    <t>[u'三星（SAMSUNG）C27F396FHC 27英寸1800R震撼曲率爱眼低蓝光曲面']</t>
+    <t>[u'1249.00']</t>
   </si>
   <si>
     <t>[u'AOC 卢瓦尔系列 LV243XIP 23.8英寸窄边框IPS广视角不闪屏电脑', u'(双HDMI+DP)', u'AOC LV243XIP 23.8英寸', u'+乐歌支架双屏组合套装', u'AOC 卢瓦尔系列 LV243XIP 23.8英寸', u'+乐歌四屏支架']</t>
@@ -158,16 +167,7 @@
     <t>[u'飞利浦（PHILIPS）27英寸 2K高分 IPS广色域 细窄边框 内置音箱 电脑液晶', u' 276E8FJAB']</t>
   </si>
   <si>
-    <t>[u'1899.00']</t>
-  </si>
-  <si>
-    <t>[u'飞利浦（PHILIPS）27英寸 二代1800R曲率 旗舰级曲面 HDMI/DP接口 90%NTSC广色域 7.7mm纤薄 电脑液晶', u'278C7QJSW']</t>
-  </si>
-  <si>
-    <t>[u'1299.00']</t>
-  </si>
-  <si>
-    <t>[u'三星（SAMSUNG）C32F395FWC 31.5英寸1800R震撼曲率可壁挂曲面']</t>
+    <t>[u'1999.00']</t>
   </si>
 </sst>
 </file>
@@ -572,135 +572,135 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
         <v>36</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
         <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
         <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
         <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
         <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -708,7 +708,7 @@
         <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -724,15 +724,15 @@
         <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
         <v>50</v>
-      </c>
-      <c r="B28" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
